--- a/data.xlsx
+++ b/data.xlsx
@@ -8,14 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="夏令时" sheetId="2" r:id="rId4"/>
+    <sheet name="2024夏令时" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>Name</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>2023-10-10 08:20:00</t>
-  </si>
-  <si>
-    <t>D:\系统铃声\冬夏日常铃声\上课.mp3</t>
   </si>
   <si>
     <t>第一节下课</t>
@@ -911,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L5" t="s">
         <v>19</v>
@@ -928,19 +925,19 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
         <v>31</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
@@ -975,20 +972,20 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
         <v>33</v>
       </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
       <c r="F7" t="s">
         <v>17</v>
       </c>
@@ -1005,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L7" t="s">
         <v>19</v>
@@ -1022,19 +1019,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
         <v>35</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
@@ -1069,20 +1066,20 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
         <v>37</v>
       </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
       <c r="F9" t="s">
         <v>17</v>
       </c>
@@ -1099,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L9" t="s">
         <v>19</v>
@@ -1116,19 +1113,19 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
         <v>39</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>40</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
@@ -1163,20 +1160,20 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
         <v>41</v>
       </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>42</v>
-      </c>
       <c r="F11" t="s">
         <v>17</v>
       </c>
@@ -1193,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L11" t="s">
         <v>19</v>
@@ -1210,46 +1207,46 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
         <v>43</v>
       </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12">
+        <v>65663</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
         <v>44</v>
       </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12">
-        <v>65663</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" t="s">
         <v>45</v>
-      </c>
-      <c r="L12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N12" t="s">
-        <v>46</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1257,46 +1254,46 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
         <v>47</v>
       </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13">
+        <v>65663</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
         <v>48</v>
       </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13">
-        <v>65663</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" t="s">
         <v>49</v>
-      </c>
-      <c r="L13" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" t="s">
-        <v>19</v>
-      </c>
-      <c r="N13" t="s">
-        <v>50</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1304,46 +1301,46 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
         <v>51</v>
       </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14">
+        <v>65663</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
         <v>52</v>
       </c>
-      <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14">
-        <v>65663</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" t="s">
         <v>53</v>
-      </c>
-      <c r="L14" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14" t="s">
-        <v>19</v>
-      </c>
-      <c r="N14" t="s">
-        <v>54</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1351,46 +1348,46 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
         <v>55</v>
       </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15">
+        <v>65663</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
         <v>56</v>
       </c>
-      <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15">
-        <v>65663</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" t="s">
         <v>57</v>
-      </c>
-      <c r="L15" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15" t="s">
-        <v>19</v>
-      </c>
-      <c r="N15" t="s">
-        <v>58</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1398,20 +1395,20 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
         <v>59</v>
       </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>60</v>
-      </c>
       <c r="F16" t="s">
         <v>17</v>
       </c>
@@ -1428,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L16" t="s">
         <v>19</v>
@@ -1445,19 +1442,19 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
         <v>61</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>62</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -1492,37 +1489,37 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
         <v>63</v>
       </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18">
+        <v>65663</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
         <v>64</v>
-      </c>
-      <c r="F18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18">
-        <v>65663</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18" t="s">
-        <v>65</v>
       </c>
       <c r="L18" t="s">
         <v>19</v>
@@ -1539,20 +1536,20 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
         <v>66</v>
       </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>67</v>
-      </c>
       <c r="F19" t="s">
         <v>17</v>
       </c>
@@ -1569,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L19" t="s">
         <v>19</v>
@@ -1586,19 +1583,19 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
         <v>68</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>69</v>
       </c>
       <c r="F20" t="s">
         <v>17</v>
@@ -1633,20 +1630,20 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
         <v>70</v>
       </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>71</v>
-      </c>
       <c r="F21" t="s">
         <v>17</v>
       </c>
@@ -1663,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L21" t="s">
         <v>19</v>
@@ -1680,19 +1677,19 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
         <v>72</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>73</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
@@ -1727,20 +1724,20 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
         <v>74</v>
       </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>75</v>
-      </c>
       <c r="F23" t="s">
         <v>17</v>
       </c>
@@ -1757,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L23" t="s">
         <v>19</v>
@@ -1774,19 +1771,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
         <v>76</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>77</v>
       </c>
       <c r="F24" t="s">
         <v>17</v>
@@ -1821,20 +1818,20 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
         <v>78</v>
       </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>79</v>
-      </c>
       <c r="F25" t="s">
         <v>17</v>
       </c>
@@ -1851,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L25" t="s">
         <v>19</v>
@@ -1868,20 +1865,20 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
         <v>80</v>
       </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>81</v>
-      </c>
       <c r="F26" t="s">
         <v>17</v>
       </c>
@@ -1898,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L26" t="s">
         <v>19</v>
@@ -1915,25 +1912,25 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
         <v>82</v>
       </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>83</v>
-      </c>
       <c r="F27" t="s">
         <v>17</v>
       </c>
       <c r="G27">
-        <v>65551</v>
+        <v>65647</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -1962,25 +1959,25 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
         <v>84</v>
       </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>85</v>
-      </c>
       <c r="F28" t="s">
         <v>17</v>
       </c>
       <c r="G28">
-        <v>65648</v>
+        <v>65552</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -2009,7 +2006,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -2021,13 +2018,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F29" t="s">
         <v>17</v>
       </c>
       <c r="G29">
-        <v>65551</v>
+        <v>65647</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -2039,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L29" t="s">
         <v>19</v>
@@ -2056,25 +2053,25 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
         <v>87</v>
       </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>88</v>
-      </c>
       <c r="F30" t="s">
         <v>17</v>
       </c>
       <c r="G30">
-        <v>65648</v>
+        <v>65552</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -2086,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L30" t="s">
         <v>19</v>
@@ -2103,19 +2100,19 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
         <v>89</v>
-      </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>90</v>
       </c>
       <c r="F31" t="s">
         <v>17</v>
@@ -2150,46 +2147,46 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
         <v>91</v>
       </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32">
+        <v>65663</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
         <v>92</v>
       </c>
-      <c r="F32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32">
-        <v>65663</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
+        <v>19</v>
+      </c>
+      <c r="M32" t="s">
+        <v>19</v>
+      </c>
+      <c r="N32" t="s">
         <v>93</v>
-      </c>
-      <c r="L32" t="s">
-        <v>19</v>
-      </c>
-      <c r="M32" t="s">
-        <v>19</v>
-      </c>
-      <c r="N32" t="s">
-        <v>94</v>
       </c>
       <c r="O32">
         <v>0</v>
@@ -2197,46 +2194,46 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
         <v>95</v>
       </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33">
+        <v>65663</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
+        <v>92</v>
+      </c>
+      <c r="L33" t="s">
+        <v>19</v>
+      </c>
+      <c r="M33" t="s">
+        <v>19</v>
+      </c>
+      <c r="N33" t="s">
         <v>96</v>
-      </c>
-      <c r="F33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33">
-        <v>65663</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33" t="s">
-        <v>93</v>
-      </c>
-      <c r="L33" t="s">
-        <v>19</v>
-      </c>
-      <c r="M33" t="s">
-        <v>19</v>
-      </c>
-      <c r="N33" t="s">
-        <v>97</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -2244,46 +2241,46 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
         <v>98</v>
       </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34">
+        <v>65663</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>92</v>
+      </c>
+      <c r="L34" t="s">
+        <v>19</v>
+      </c>
+      <c r="M34" t="s">
+        <v>19</v>
+      </c>
+      <c r="N34" t="s">
         <v>99</v>
-      </c>
-      <c r="F34" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34">
-        <v>65663</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34" t="s">
-        <v>93</v>
-      </c>
-      <c r="L34" t="s">
-        <v>19</v>
-      </c>
-      <c r="M34" t="s">
-        <v>19</v>
-      </c>
-      <c r="N34" t="s">
-        <v>100</v>
       </c>
       <c r="O34">
         <v>0</v>
@@ -2291,37 +2288,37 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
         <v>101</v>
       </c>
-      <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35">
+        <v>65663</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
         <v>102</v>
-      </c>
-      <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35">
-        <v>65663</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35" t="s">
-        <v>103</v>
       </c>
       <c r="L35" t="s">
         <v>19</v>
@@ -2338,7 +2335,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -2350,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F36" t="s">
         <v>17</v>
@@ -2368,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L36" t="s">
         <v>19</v>
@@ -2385,19 +2382,19 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
         <v>105</v>
-      </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37" t="s">
-        <v>106</v>
       </c>
       <c r="F37" t="s">
         <v>17</v>
@@ -2432,20 +2429,20 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
         <v>107</v>
       </c>
-      <c r="B38">
-        <v>2</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38" t="s">
-        <v>108</v>
-      </c>
       <c r="F38" t="s">
         <v>17</v>
       </c>
@@ -2462,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L38" t="s">
         <v>19</v>
@@ -2479,19 +2476,19 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
         <v>109</v>
-      </c>
-      <c r="B39">
-        <v>2</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39" t="s">
-        <v>110</v>
       </c>
       <c r="F39" t="s">
         <v>17</v>
@@ -2526,20 +2523,20 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
         <v>111</v>
       </c>
-      <c r="B40">
-        <v>2</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40" t="s">
-        <v>112</v>
-      </c>
       <c r="F40" t="s">
         <v>17</v>
       </c>
@@ -2556,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L40" t="s">
         <v>19</v>
@@ -2573,19 +2570,19 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
         <v>113</v>
-      </c>
-      <c r="B41">
-        <v>2</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41" t="s">
-        <v>114</v>
       </c>
       <c r="F41" t="s">
         <v>17</v>
@@ -2612,7 +2609,7 @@
         <v>19</v>
       </c>
       <c r="N41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O41">
         <v>0</v>
@@ -2620,19 +2617,19 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
         <v>115</v>
-      </c>
-      <c r="B42">
-        <v>2</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42" t="s">
-        <v>116</v>
       </c>
       <c r="F42" t="s">
         <v>17</v>
@@ -2659,7 +2656,7 @@
         <v>19</v>
       </c>
       <c r="N42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O42">
         <v>0</v>
@@ -2667,19 +2664,19 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
         <v>117</v>
-      </c>
-      <c r="B43">
-        <v>2</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43" t="s">
-        <v>118</v>
       </c>
       <c r="F43" t="s">
         <v>17</v>
@@ -2706,7 +2703,7 @@
         <v>19</v>
       </c>
       <c r="N43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O43">
         <v>0</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>Name</t>
   </si>
@@ -89,7 +89,7 @@
     <t>D:\系统铃声\冬夏日常铃声\下课.mp3</t>
   </si>
   <si>
-    <t>大课间</t>
+    <t>初一初二大课间</t>
   </si>
   <si>
     <t>2023-10-10 07:50:15</t>
@@ -98,168 +98,189 @@
     <t>D:\系统铃声\冬夏日常铃声\相信自己.mp3</t>
   </si>
   <si>
+    <t>1;2;5;8;</t>
+  </si>
+  <si>
+    <t>第一节上课</t>
+  </si>
+  <si>
+    <t>2023-10-10 08:20:00</t>
+  </si>
+  <si>
+    <t>第一节下课</t>
+  </si>
+  <si>
+    <t>2023-10-10 09:00:00</t>
+  </si>
+  <si>
+    <t>第二节上课</t>
+  </si>
+  <si>
+    <t>2023-10-10 09:10:00</t>
+  </si>
+  <si>
+    <t>第二节下课</t>
+  </si>
+  <si>
+    <t>2023-10-10 09:50:00</t>
+  </si>
+  <si>
+    <t>第三节上课</t>
+  </si>
+  <si>
+    <t>2023-10-10 10:00:00</t>
+  </si>
+  <si>
+    <t>第三节下课</t>
+  </si>
+  <si>
+    <t>2023-10-10 10:40:00</t>
+  </si>
+  <si>
+    <t>第四节上课</t>
+  </si>
+  <si>
+    <t>2023-10-10 10:50:00</t>
+  </si>
+  <si>
+    <t>上午眼保健操</t>
+  </si>
+  <si>
+    <t>2023-10-10 10:50:17</t>
+  </si>
+  <si>
+    <t>D:\系统铃声\冬夏日常铃声\眼保健操.mp3</t>
+  </si>
+  <si>
+    <t>1;2;5;</t>
+  </si>
+  <si>
+    <t>初三第四节下课</t>
+  </si>
+  <si>
+    <t>2023-10-10 11:30:00</t>
+  </si>
+  <si>
+    <t>D:\系统铃声\冬夏日常铃声\下课提示\初三下课提示.mp3</t>
+  </si>
+  <si>
+    <t>3;5;8;</t>
+  </si>
+  <si>
+    <t>初二第四节下课</t>
+  </si>
+  <si>
+    <t>2023-10-10 11:35:00</t>
+  </si>
+  <si>
+    <t>D:\系统铃声\冬夏日常铃声\下课提示\初二下课提示.mp3</t>
+  </si>
+  <si>
+    <t>2;5;8;</t>
+  </si>
+  <si>
+    <t>初一第四节下课</t>
+  </si>
+  <si>
+    <t>2023-10-10 11:40:00</t>
+  </si>
+  <si>
+    <t>D:\系统铃声\冬夏日常铃声\下课提示\初一下课提示.mp3</t>
+  </si>
+  <si>
+    <t>1;5;8;</t>
+  </si>
+  <si>
+    <t>午休开始</t>
+  </si>
+  <si>
+    <t>2023-10-10 12:05:00</t>
+  </si>
+  <si>
+    <t>初三英语听力前奏</t>
+  </si>
+  <si>
+    <t>2023-10-10 12:55:00</t>
+  </si>
+  <si>
+    <t>D:\系统铃声\英语听力\中考训练\英语听力前奏.mp3</t>
+  </si>
+  <si>
+    <t>3;5;</t>
+  </si>
+  <si>
+    <t>初一初二午休结束</t>
+  </si>
+  <si>
+    <t>2023-10-10 12:57:45</t>
+  </si>
+  <si>
+    <t>初一初二练字</t>
+  </si>
+  <si>
+    <t>2023-10-10 12:58:05</t>
+  </si>
+  <si>
+    <t>D:\系统铃声\冬夏日常铃声\练字.mp3</t>
+  </si>
+  <si>
+    <t>初一初二练字结束</t>
+  </si>
+  <si>
+    <t>2023-10-10 13:10:00</t>
+  </si>
+  <si>
+    <t>第五节上课</t>
+  </si>
+  <si>
+    <t>2023-10-10 13:15:00</t>
+  </si>
+  <si>
+    <t>第五节下课</t>
+  </si>
+  <si>
+    <t>2023-10-10 13:55:00</t>
+  </si>
+  <si>
+    <t>第六节上课</t>
+  </si>
+  <si>
+    <t>2023-10-10 14:05:00</t>
+  </si>
+  <si>
+    <t>第六节下课</t>
+  </si>
+  <si>
+    <t>2023-10-10 14:45:00</t>
+  </si>
+  <si>
+    <t>第七节上课</t>
+  </si>
+  <si>
+    <t>2023-10-10 14:55:00</t>
+  </si>
+  <si>
+    <t>第七节下课</t>
+  </si>
+  <si>
+    <t>2023-10-10 15:35:00</t>
+  </si>
+  <si>
+    <t>作业整理上课</t>
+  </si>
+  <si>
+    <t>2023-10-10 15:45:00</t>
+  </si>
+  <si>
+    <t>下午眼保健操</t>
+  </si>
+  <si>
+    <t>2023-10-10 15:45:17</t>
+  </si>
+  <si>
     <t>1;2;5;7;8;</t>
   </si>
   <si>
-    <t>第一节上课</t>
-  </si>
-  <si>
-    <t>2023-10-10 08:20:00</t>
-  </si>
-  <si>
-    <t>第一节下课</t>
-  </si>
-  <si>
-    <t>2023-10-10 09:00:00</t>
-  </si>
-  <si>
-    <t>第二节上课</t>
-  </si>
-  <si>
-    <t>2023-10-10 09:10:00</t>
-  </si>
-  <si>
-    <t>第二节下课</t>
-  </si>
-  <si>
-    <t>2023-10-10 09:50:00</t>
-  </si>
-  <si>
-    <t>第三节上课</t>
-  </si>
-  <si>
-    <t>2023-10-10 10:00:00</t>
-  </si>
-  <si>
-    <t>第三节下课</t>
-  </si>
-  <si>
-    <t>2023-10-10 10:40:00</t>
-  </si>
-  <si>
-    <t>第四节上课</t>
-  </si>
-  <si>
-    <t>2023-10-10 10:50:00</t>
-  </si>
-  <si>
-    <t>上午眼保健操</t>
-  </si>
-  <si>
-    <t>2023-10-10 10:50:17</t>
-  </si>
-  <si>
-    <t>D:\系统铃声\冬夏日常铃声\眼保健操.mp3</t>
-  </si>
-  <si>
-    <t>1;2;5;</t>
-  </si>
-  <si>
-    <t>初三第四节下课</t>
-  </si>
-  <si>
-    <t>2023-10-10 11:30:00</t>
-  </si>
-  <si>
-    <t>D:\系统铃声\冬夏日常铃声\下课提示\初三下课提示.mp3</t>
-  </si>
-  <si>
-    <t>3;5;8;</t>
-  </si>
-  <si>
-    <t>初二第四节下课</t>
-  </si>
-  <si>
-    <t>2023-10-10 11:35:00</t>
-  </si>
-  <si>
-    <t>D:\系统铃声\冬夏日常铃声\下课提示\初二下课提示.mp3</t>
-  </si>
-  <si>
-    <t>2;5;8;</t>
-  </si>
-  <si>
-    <t>初一第四节下课</t>
-  </si>
-  <si>
-    <t>2023-10-10 11:40:00</t>
-  </si>
-  <si>
-    <t>D:\系统铃声\冬夏日常铃声\下课提示\初一下课提示.mp3</t>
-  </si>
-  <si>
-    <t>1;5;8;</t>
-  </si>
-  <si>
-    <t>午休开始</t>
-  </si>
-  <si>
-    <t>2023-10-10 12:05:00</t>
-  </si>
-  <si>
-    <t>午休结束</t>
-  </si>
-  <si>
-    <t>2023-10-10 12:57:45</t>
-  </si>
-  <si>
-    <t>练字</t>
-  </si>
-  <si>
-    <t>2023-10-10 12:58:05</t>
-  </si>
-  <si>
-    <t>D:\系统铃声\冬夏日常铃声\练字.mp3</t>
-  </si>
-  <si>
-    <t>第五节上课</t>
-  </si>
-  <si>
-    <t>2023-10-10 13:15:00</t>
-  </si>
-  <si>
-    <t>第五节下课</t>
-  </si>
-  <si>
-    <t>2023-10-10 13:55:00</t>
-  </si>
-  <si>
-    <t>第六节上课</t>
-  </si>
-  <si>
-    <t>2023-10-10 14:05:00</t>
-  </si>
-  <si>
-    <t>第六节下课</t>
-  </si>
-  <si>
-    <t>2023-10-10 14:45:00</t>
-  </si>
-  <si>
-    <t>第七节上课</t>
-  </si>
-  <si>
-    <t>2023-10-10 14:55:00</t>
-  </si>
-  <si>
-    <t>第七节下课</t>
-  </si>
-  <si>
-    <t>2023-10-10 15:35:00</t>
-  </si>
-  <si>
-    <t>作业整理上课</t>
-  </si>
-  <si>
-    <t>2023-10-10 15:45:00</t>
-  </si>
-  <si>
-    <t>下午眼保健操</t>
-  </si>
-  <si>
-    <t>2023-10-10 15:45:17</t>
-  </si>
-  <si>
     <t>作业整理下课（1~4）</t>
   </si>
   <si>
@@ -281,7 +302,7 @@
     <t>2023-10-10 16:40:00</t>
   </si>
   <si>
-    <t>课后服务下课</t>
+    <t>初一课后服务下课</t>
   </si>
   <si>
     <t>2023-10-10 17:25:00</t>
@@ -299,34 +320,61 @@
     <t>1;5;7;8;</t>
   </si>
   <si>
+    <t>晚餐初一</t>
+  </si>
+  <si>
+    <t>2023-10-10 17:25:30</t>
+  </si>
+  <si>
+    <t>D:\系统铃声\冬夏日常铃声\夜自修学生就餐提醒.mp3</t>
+  </si>
+  <si>
+    <t>初二课后服务下课</t>
+  </si>
+  <si>
+    <t>2023-10-10 17:30:00</t>
+  </si>
+  <si>
+    <t>2;5;7;8;</t>
+  </si>
+  <si>
     <t>初二放学</t>
   </si>
   <si>
-    <t>2023-10-10 17:30:00</t>
-  </si>
-  <si>
-    <t>2;5;7;8;</t>
+    <t>2023-10-10 17:30:16</t>
+  </si>
+  <si>
+    <t>晚餐初二</t>
+  </si>
+  <si>
+    <t>2023-10-10 17:30:30</t>
+  </si>
+  <si>
+    <t>初三课后服务下课</t>
+  </si>
+  <si>
+    <t>2023-10-10 17:35:00</t>
+  </si>
+  <si>
+    <t>3;5;7;8;</t>
   </si>
   <si>
     <t>初三放学</t>
   </si>
   <si>
-    <t>2023-10-10 17:35:00</t>
-  </si>
-  <si>
-    <t>3;5;7;8;</t>
-  </si>
-  <si>
-    <t>晚餐</t>
+    <t>2023-10-10 17:35:16</t>
+  </si>
+  <si>
+    <t>晚餐初三</t>
+  </si>
+  <si>
+    <t>2023-10-10 17:35:30</t>
+  </si>
+  <si>
+    <t>晚自修1上课</t>
   </si>
   <si>
     <t>2023-10-10 18:05:00</t>
-  </si>
-  <si>
-    <t>D:\系统铃声\冬夏日常铃声\夜自修学生就餐提醒.mp3</t>
-  </si>
-  <si>
-    <t>晚自修1上课</t>
   </si>
   <si>
     <t>晚自修1下课</t>
@@ -1472,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="L17" t="s">
         <v>19</v>
@@ -1481,7 +1529,7 @@
         <v>19</v>
       </c>
       <c r="N17" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1489,7 +1537,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -1501,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
@@ -1519,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="L18" t="s">
         <v>19</v>
@@ -1528,7 +1576,7 @@
         <v>19</v>
       </c>
       <c r="N18" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1536,7 +1584,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -1548,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F19" t="s">
         <v>17</v>
@@ -1566,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="L19" t="s">
         <v>19</v>
@@ -1575,7 +1623,7 @@
         <v>19</v>
       </c>
       <c r="N19" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1583,7 +1631,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -1595,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F20" t="s">
         <v>17</v>
@@ -1622,7 +1670,7 @@
         <v>19</v>
       </c>
       <c r="N20" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1630,7 +1678,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -1642,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F21" t="s">
         <v>17</v>
@@ -1677,7 +1725,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -1689,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
@@ -1724,7 +1772,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -1736,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F23" t="s">
         <v>17</v>
@@ -1771,7 +1819,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -1783,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F24" t="s">
         <v>17</v>
@@ -1818,7 +1866,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -1830,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F25" t="s">
         <v>17</v>
@@ -1865,7 +1913,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -1877,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
@@ -1895,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="L26" t="s">
         <v>19</v>
@@ -1904,7 +1952,7 @@
         <v>19</v>
       </c>
       <c r="N26" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -1912,7 +1960,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -1924,13 +1972,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F27" t="s">
         <v>17</v>
       </c>
       <c r="G27">
-        <v>65647</v>
+        <v>65663</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -1942,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L27" t="s">
         <v>19</v>
@@ -1959,7 +2007,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -1971,13 +2019,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F28" t="s">
         <v>17</v>
       </c>
       <c r="G28">
-        <v>65552</v>
+        <v>65663</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -1989,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="L28" t="s">
         <v>19</v>
@@ -1998,7 +2046,7 @@
         <v>19</v>
       </c>
       <c r="N28" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -2006,7 +2054,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -2018,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F29" t="s">
         <v>17</v>
@@ -2036,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L29" t="s">
         <v>19</v>
@@ -2053,7 +2101,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -2065,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F30" t="s">
         <v>17</v>
@@ -2083,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L30" t="s">
         <v>19</v>
@@ -2100,7 +2148,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -2112,13 +2160,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F31" t="s">
         <v>17</v>
       </c>
       <c r="G31">
-        <v>65663</v>
+        <v>65647</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -2130,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L31" t="s">
         <v>19</v>
@@ -2147,7 +2195,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -2159,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F32" t="s">
         <v>17</v>
       </c>
       <c r="G32">
-        <v>65663</v>
+        <v>65552</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -2177,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="L32" t="s">
         <v>19</v>
@@ -2186,7 +2234,7 @@
         <v>19</v>
       </c>
       <c r="N32" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="O32">
         <v>0</v>
@@ -2194,7 +2242,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -2206,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F33" t="s">
         <v>17</v>
@@ -2224,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="L33" t="s">
         <v>19</v>
@@ -2233,7 +2281,7 @@
         <v>19</v>
       </c>
       <c r="N33" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -2271,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="L34" t="s">
         <v>19</v>
@@ -2280,7 +2328,7 @@
         <v>19</v>
       </c>
       <c r="N34" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O34">
         <v>0</v>
@@ -2288,46 +2336,46 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>102</v>
+      </c>
+      <c r="F35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35">
+        <v>65663</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
+        <v>103</v>
+      </c>
+      <c r="L35" t="s">
+        <v>19</v>
+      </c>
+      <c r="M35" t="s">
+        <v>19</v>
+      </c>
+      <c r="N35" t="s">
         <v>100</v>
-      </c>
-      <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35" t="s">
-        <v>101</v>
-      </c>
-      <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35">
-        <v>65663</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35" t="s">
-        <v>102</v>
-      </c>
-      <c r="L35" t="s">
-        <v>19</v>
-      </c>
-      <c r="M35" t="s">
-        <v>19</v>
-      </c>
-      <c r="N35" t="s">
-        <v>20</v>
       </c>
       <c r="O35">
         <v>0</v>
@@ -2335,7 +2383,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -2347,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F36" t="s">
         <v>17</v>
@@ -2365,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L36" t="s">
         <v>19</v>
@@ -2374,7 +2422,7 @@
         <v>19</v>
       </c>
       <c r="N36" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="O36">
         <v>0</v>
@@ -2382,7 +2430,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -2394,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F37" t="s">
         <v>17</v>
@@ -2412,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="L37" t="s">
         <v>19</v>
@@ -2421,7 +2469,7 @@
         <v>19</v>
       </c>
       <c r="N37" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -2429,46 +2477,46 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>110</v>
+      </c>
+      <c r="F38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38">
+        <v>65663</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
+        <v>103</v>
+      </c>
+      <c r="L38" t="s">
+        <v>19</v>
+      </c>
+      <c r="M38" t="s">
+        <v>19</v>
+      </c>
+      <c r="N38" t="s">
         <v>106</v>
-      </c>
-      <c r="B38">
-        <v>2</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38" t="s">
-        <v>107</v>
-      </c>
-      <c r="F38" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38">
-        <v>65663</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38" t="s">
-        <v>18</v>
-      </c>
-      <c r="L38" t="s">
-        <v>19</v>
-      </c>
-      <c r="M38" t="s">
-        <v>19</v>
-      </c>
-      <c r="N38" t="s">
-        <v>20</v>
       </c>
       <c r="O38">
         <v>0</v>
@@ -2476,7 +2524,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -2488,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F39" t="s">
         <v>17</v>
@@ -2515,7 +2563,7 @@
         <v>19</v>
       </c>
       <c r="N39" t="s">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="O39">
         <v>0</v>
@@ -2523,7 +2571,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -2535,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F40" t="s">
         <v>17</v>
@@ -2553,7 +2601,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="L40" t="s">
         <v>19</v>
@@ -2562,7 +2610,7 @@
         <v>19</v>
       </c>
       <c r="N40" t="s">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="O40">
         <v>0</v>
@@ -2570,7 +2618,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -2582,34 +2630,34 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F41" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41">
+        <v>65663</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41" t="s">
+        <v>103</v>
+      </c>
+      <c r="L41" t="s">
+        <v>19</v>
+      </c>
+      <c r="M41" t="s">
+        <v>19</v>
+      </c>
+      <c r="N41" t="s">
         <v>113</v>
-      </c>
-      <c r="F41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41">
-        <v>65663</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41" t="s">
-        <v>23</v>
-      </c>
-      <c r="L41" t="s">
-        <v>19</v>
-      </c>
-      <c r="M41" t="s">
-        <v>19</v>
-      </c>
-      <c r="N41" t="s">
-        <v>93</v>
       </c>
       <c r="O41">
         <v>0</v>
@@ -2617,7 +2665,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -2629,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F42" t="s">
         <v>17</v>
@@ -2647,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L42" t="s">
         <v>19</v>
@@ -2656,7 +2704,7 @@
         <v>19</v>
       </c>
       <c r="N42" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="O42">
         <v>0</v>
@@ -2664,7 +2712,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -2676,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F43" t="s">
         <v>17</v>
@@ -2703,9 +2751,291 @@
         <v>19</v>
       </c>
       <c r="N43" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="O43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>123</v>
+      </c>
+      <c r="F44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44">
+        <v>65663</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44" t="s">
+        <v>18</v>
+      </c>
+      <c r="L44" t="s">
+        <v>19</v>
+      </c>
+      <c r="M44" t="s">
+        <v>19</v>
+      </c>
+      <c r="N44" t="s">
+        <v>20</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>124</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>125</v>
+      </c>
+      <c r="F45" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45">
+        <v>65663</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45" t="s">
+        <v>23</v>
+      </c>
+      <c r="L45" t="s">
+        <v>19</v>
+      </c>
+      <c r="M45" t="s">
+        <v>19</v>
+      </c>
+      <c r="N45" t="s">
+        <v>20</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>126</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>127</v>
+      </c>
+      <c r="F46" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46">
+        <v>65663</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46" t="s">
+        <v>18</v>
+      </c>
+      <c r="L46" t="s">
+        <v>19</v>
+      </c>
+      <c r="M46" t="s">
+        <v>19</v>
+      </c>
+      <c r="N46" t="s">
+        <v>20</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>129</v>
+      </c>
+      <c r="F47" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47">
+        <v>65663</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47" t="s">
+        <v>23</v>
+      </c>
+      <c r="L47" t="s">
+        <v>19</v>
+      </c>
+      <c r="M47" t="s">
+        <v>19</v>
+      </c>
+      <c r="N47" t="s">
+        <v>100</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>130</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>131</v>
+      </c>
+      <c r="F48" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48">
+        <v>65663</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48" t="s">
+        <v>23</v>
+      </c>
+      <c r="L48" t="s">
+        <v>19</v>
+      </c>
+      <c r="M48" t="s">
+        <v>19</v>
+      </c>
+      <c r="N48" t="s">
+        <v>106</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>133</v>
+      </c>
+      <c r="F49" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49">
+        <v>65663</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49" t="s">
+        <v>23</v>
+      </c>
+      <c r="L49" t="s">
+        <v>19</v>
+      </c>
+      <c r="M49" t="s">
+        <v>19</v>
+      </c>
+      <c r="N49" t="s">
+        <v>113</v>
+      </c>
+      <c r="O49">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,14 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="2024夏令时" sheetId="2" r:id="rId4"/>
+    <sheet name="2024中考6-17" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
   <si>
     <t>Name</t>
   </si>
@@ -92,190 +92,340 @@
     <t>初一初二大课间</t>
   </si>
   <si>
-    <t>2023-10-10 07:50:15</t>
+    <t>2023-10-10 07:50:17</t>
   </si>
   <si>
     <t>D:\系统铃声\冬夏日常铃声\相信自己.mp3</t>
   </si>
   <si>
-    <t>1;2;5;8;</t>
-  </si>
-  <si>
-    <t>第一节上课</t>
+    <t>33;45;34;35;36;37;38;39;46;41;42;56;43;58;44;15;8;24;28;10;57;9;25;27;3;12;31;26;17;6;2;67;69;68；70；</t>
+  </si>
+  <si>
+    <t>;;;;;;;;;;;;;;;;;;;;;;;;;;;;;;;;;</t>
+  </si>
+  <si>
+    <t>初一初二第1节上课</t>
   </si>
   <si>
     <t>2023-10-10 08:20:00</t>
   </si>
   <si>
-    <t>第一节下课</t>
+    <t>33;45;34;35;36;37;38;39;46;41;42;56;43;58;44;15;8;24;28;10;57;9;25;27;3;12;31;26;17;6;2;</t>
+  </si>
+  <si>
+    <t>;;;;;;;;;;;;;;;;;;;;;;;;;;;;;;;</t>
+  </si>
+  <si>
+    <t>考生入场8:35</t>
+  </si>
+  <si>
+    <t>2023-10-10 08:35:00</t>
+  </si>
+  <si>
+    <t>11;20;7;5;63;60;62;61;59;18;52;29;30;4;13;54;55;53;21;22;23;23;19;32;67;</t>
+  </si>
+  <si>
+    <t>;;;;;;;;;;;;;;;;;;;;;;;;;</t>
+  </si>
+  <si>
+    <t>A1指令语文</t>
+  </si>
+  <si>
+    <t>2023-10-10 08:36:00</t>
+  </si>
+  <si>
+    <t>D:\系统铃声\中考系统指令\a1.mp3</t>
+  </si>
+  <si>
+    <t>A2指令语文</t>
+  </si>
+  <si>
+    <t>2023-10-10 08:36:30</t>
+  </si>
+  <si>
+    <t>D:\系统铃声\中考系统指令\a2.mp3</t>
+  </si>
+  <si>
+    <t>A3指令语文</t>
+  </si>
+  <si>
+    <t>2023-10-10 08:44:30</t>
+  </si>
+  <si>
+    <t>D:\系统铃声\中考系统指令\a3.mp3</t>
+  </si>
+  <si>
+    <t>分发答题纸</t>
+  </si>
+  <si>
+    <t>2023-10-10 08:45:00</t>
+  </si>
+  <si>
+    <t>D:\系统铃声\中考系统指令\发答题纸.mp3</t>
+  </si>
+  <si>
+    <t>B指令语文</t>
+  </si>
+  <si>
+    <t>2023-10-10 08:46:00</t>
+  </si>
+  <si>
+    <t>D:\系统铃声\中考系统指令\b.mp3</t>
+  </si>
+  <si>
+    <t>C指令语文</t>
+  </si>
+  <si>
+    <t>2023-10-10 08:47:30</t>
+  </si>
+  <si>
+    <t>D:\系统铃声\中考系统指令\c.mp3</t>
+  </si>
+  <si>
+    <t>D指令语文</t>
+  </si>
+  <si>
+    <t>2023-10-10 08:50:00</t>
+  </si>
+  <si>
+    <t>D:\系统铃声\中考系统指令\d.mp3</t>
+  </si>
+  <si>
+    <t>发试卷语文</t>
+  </si>
+  <si>
+    <t>2023-10-10 08:55:00</t>
+  </si>
+  <si>
+    <t>D:\系统铃声\中考系统指令\发试卷.mp3</t>
+  </si>
+  <si>
+    <t>E语文</t>
+  </si>
+  <si>
+    <t>2023-10-10 08:57:00</t>
+  </si>
+  <si>
+    <t>D:\系统铃声\中考系统指令\e语文.mp3</t>
+  </si>
+  <si>
+    <t>F指令语文开考</t>
   </si>
   <si>
     <t>2023-10-10 09:00:00</t>
   </si>
   <si>
-    <t>第二节上课</t>
+    <t>D:\系统铃声\中考系统指令\f铃声+F指令（现在开始答题）.mp3</t>
+  </si>
+  <si>
+    <t>初一初二第1节下课</t>
+  </si>
+  <si>
+    <t>初一初二第2节上课</t>
   </si>
   <si>
     <t>2023-10-10 09:10:00</t>
   </si>
   <si>
-    <t>第二节下课</t>
+    <t>初一初二第2节下课</t>
   </si>
   <si>
     <t>2023-10-10 09:50:00</t>
   </si>
   <si>
-    <t>第三节上课</t>
+    <t>初一初二第3节上课</t>
   </si>
   <si>
     <t>2023-10-10 10:00:00</t>
   </si>
   <si>
-    <t>第三节下课</t>
+    <t>初一初二第3节下课</t>
   </si>
   <si>
     <t>2023-10-10 10:40:00</t>
   </si>
   <si>
-    <t>第四节上课</t>
+    <t>G指令语文提醒</t>
+  </si>
+  <si>
+    <t>2023-10-10 10:45:00</t>
+  </si>
+  <si>
+    <t>D:\系统铃声\中考系统指令\g.mp3</t>
+  </si>
+  <si>
+    <t>初一初二第4节上课</t>
   </si>
   <si>
     <t>2023-10-10 10:50:00</t>
   </si>
   <si>
-    <t>上午眼保健操</t>
-  </si>
-  <si>
-    <t>2023-10-10 10:50:17</t>
+    <t>H指令语文结束</t>
+  </si>
+  <si>
+    <t>2023-10-10 11:00:00</t>
+  </si>
+  <si>
+    <t>D:\系统铃声\中考系统指令\h铃声+H指令（收卷）.mp3</t>
+  </si>
+  <si>
+    <t>初三上午第四节下课</t>
+  </si>
+  <si>
+    <t>2023-10-10 11:30:00</t>
+  </si>
+  <si>
+    <t>D:\系统铃声\冬夏日常铃声\下课提示\初三下课提示.mp3</t>
+  </si>
+  <si>
+    <t>3;5;8;</t>
+  </si>
+  <si>
+    <t>初二第四节下课</t>
+  </si>
+  <si>
+    <t>2023-10-10 11:35:00</t>
+  </si>
+  <si>
+    <t>D:\系统铃声\冬夏日常铃声\下课提示\初二下课提示.mp3</t>
+  </si>
+  <si>
+    <t>2;5;8;</t>
+  </si>
+  <si>
+    <t>初一第四节下课</t>
+  </si>
+  <si>
+    <t>2023-10-10 11:40:00</t>
+  </si>
+  <si>
+    <t>D:\系统铃声\冬夏日常铃声\下课提示\初一下课提示.mp3</t>
+  </si>
+  <si>
+    <t>1;5;8;</t>
+  </si>
+  <si>
+    <t>考生入场13：10</t>
+  </si>
+  <si>
+    <t>2023-10-10 13:10:00</t>
+  </si>
+  <si>
+    <t>A1指令科学</t>
+  </si>
+  <si>
+    <t>2023-10-10 13:12:00</t>
+  </si>
+  <si>
+    <t>A3指令科学</t>
+  </si>
+  <si>
+    <t>2023-10-10 13:13:00</t>
+  </si>
+  <si>
+    <t>分发答题纸科学</t>
+  </si>
+  <si>
+    <t>2023-10-10 13:15:00</t>
+  </si>
+  <si>
+    <t>初一初二第5节上课</t>
+  </si>
+  <si>
+    <t>B指令科学</t>
+  </si>
+  <si>
+    <t>2023-10-10 13:16:00</t>
+  </si>
+  <si>
+    <t>C指令科学</t>
+  </si>
+  <si>
+    <t>2023-10-10 13:17:30</t>
+  </si>
+  <si>
+    <t>D指令启封试卷科学</t>
+  </si>
+  <si>
+    <t>2023-10-10 13:20:00</t>
+  </si>
+  <si>
+    <t>分发试卷科学</t>
+  </si>
+  <si>
+    <t>2023-10-10 13:25:00</t>
+  </si>
+  <si>
+    <t>E科学</t>
+  </si>
+  <si>
+    <t>2023-10-10 13:27:00</t>
+  </si>
+  <si>
+    <t>D:\系统铃声\中考系统指令\e科学.mp3</t>
+  </si>
+  <si>
+    <t>F指令开考科学</t>
+  </si>
+  <si>
+    <t>2023-10-10 13:30:00</t>
+  </si>
+  <si>
+    <t>初一初二第5节下课</t>
+  </si>
+  <si>
+    <t>2023-10-10 13:55:00</t>
+  </si>
+  <si>
+    <t>初一初二第6节上课</t>
+  </si>
+  <si>
+    <t>2023-10-10 14:05:00</t>
+  </si>
+  <si>
+    <t>初一初二第6节下课</t>
+  </si>
+  <si>
+    <t>2023-10-10 14:45:00</t>
+  </si>
+  <si>
+    <t>初一初二第7节上课</t>
+  </si>
+  <si>
+    <t>2023-10-10 14:55:00</t>
+  </si>
+  <si>
+    <t>G指令科学提醒</t>
+  </si>
+  <si>
+    <t>2023-10-10 15:15:00</t>
+  </si>
+  <si>
+    <t>H指令科学结束</t>
+  </si>
+  <si>
+    <t>2023-10-10 15:30:00</t>
+  </si>
+  <si>
+    <t>第7节下课</t>
+  </si>
+  <si>
+    <t>2023-10-10 15:35:00</t>
+  </si>
+  <si>
+    <t>作业整理上课</t>
+  </si>
+  <si>
+    <t>2023-10-10 15:45:00</t>
+  </si>
+  <si>
+    <t>下午眼保健操</t>
+  </si>
+  <si>
+    <t>2023-10-10 15:45:17</t>
   </si>
   <si>
     <t>D:\系统铃声\冬夏日常铃声\眼保健操.mp3</t>
-  </si>
-  <si>
-    <t>1;2;5;</t>
-  </si>
-  <si>
-    <t>初三第四节下课</t>
-  </si>
-  <si>
-    <t>2023-10-10 11:30:00</t>
-  </si>
-  <si>
-    <t>D:\系统铃声\冬夏日常铃声\下课提示\初三下课提示.mp3</t>
-  </si>
-  <si>
-    <t>3;5;8;</t>
-  </si>
-  <si>
-    <t>初二第四节下课</t>
-  </si>
-  <si>
-    <t>2023-10-10 11:35:00</t>
-  </si>
-  <si>
-    <t>D:\系统铃声\冬夏日常铃声\下课提示\初二下课提示.mp3</t>
-  </si>
-  <si>
-    <t>2;5;8;</t>
-  </si>
-  <si>
-    <t>初一第四节下课</t>
-  </si>
-  <si>
-    <t>2023-10-10 11:40:00</t>
-  </si>
-  <si>
-    <t>D:\系统铃声\冬夏日常铃声\下课提示\初一下课提示.mp3</t>
-  </si>
-  <si>
-    <t>1;5;8;</t>
-  </si>
-  <si>
-    <t>午休开始</t>
-  </si>
-  <si>
-    <t>2023-10-10 12:05:00</t>
-  </si>
-  <si>
-    <t>初三英语听力前奏</t>
-  </si>
-  <si>
-    <t>2023-10-10 12:55:00</t>
-  </si>
-  <si>
-    <t>D:\系统铃声\英语听力\中考训练\英语听力前奏.mp3</t>
-  </si>
-  <si>
-    <t>3;5;</t>
-  </si>
-  <si>
-    <t>初一初二午休结束</t>
-  </si>
-  <si>
-    <t>2023-10-10 12:57:45</t>
-  </si>
-  <si>
-    <t>初一初二练字</t>
-  </si>
-  <si>
-    <t>2023-10-10 12:58:05</t>
-  </si>
-  <si>
-    <t>D:\系统铃声\冬夏日常铃声\练字.mp3</t>
-  </si>
-  <si>
-    <t>初一初二练字结束</t>
-  </si>
-  <si>
-    <t>2023-10-10 13:10:00</t>
-  </si>
-  <si>
-    <t>第五节上课</t>
-  </si>
-  <si>
-    <t>2023-10-10 13:15:00</t>
-  </si>
-  <si>
-    <t>第五节下课</t>
-  </si>
-  <si>
-    <t>2023-10-10 13:55:00</t>
-  </si>
-  <si>
-    <t>第六节上课</t>
-  </si>
-  <si>
-    <t>2023-10-10 14:05:00</t>
-  </si>
-  <si>
-    <t>第六节下课</t>
-  </si>
-  <si>
-    <t>2023-10-10 14:45:00</t>
-  </si>
-  <si>
-    <t>第七节上课</t>
-  </si>
-  <si>
-    <t>2023-10-10 14:55:00</t>
-  </si>
-  <si>
-    <t>第七节下课</t>
-  </si>
-  <si>
-    <t>2023-10-10 15:35:00</t>
-  </si>
-  <si>
-    <t>作业整理上课</t>
-  </si>
-  <si>
-    <t>2023-10-10 15:45:00</t>
-  </si>
-  <si>
-    <t>下午眼保健操</t>
-  </si>
-  <si>
-    <t>2023-10-10 15:45:17</t>
   </si>
   <si>
     <t>1;2;5;7;8;</t>
@@ -900,7 +1050,7 @@
         <v>65663</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -912,13 +1062,13 @@
         <v>26</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="N4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -926,7 +1076,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -938,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
@@ -959,13 +1109,13 @@
         <v>18</v>
       </c>
       <c r="L5" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M5" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -973,7 +1123,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -985,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
@@ -1003,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L6" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M6" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="N6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1020,7 +1170,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1032,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
@@ -1050,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="N7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1067,7 +1217,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -1079,34 +1229,34 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8">
+        <v>65663</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" t="s">
         <v>35</v>
       </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8">
-        <v>65663</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" t="s">
-        <v>19</v>
-      </c>
       <c r="M8" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="N8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1114,46 +1264,46 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9">
+        <v>65663</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" t="s">
         <v>36</v>
       </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9">
-        <v>65663</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" t="s">
-        <v>19</v>
-      </c>
       <c r="N9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1161,7 +1311,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -1173,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
@@ -1191,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="L10" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M10" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="N10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -1208,7 +1358,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -1220,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
@@ -1238,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="L11" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M11" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="N11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -1255,7 +1405,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -1267,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
@@ -1285,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="L12" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M12" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="N12" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1302,7 +1452,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1314,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
@@ -1332,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L13" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M13" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="N13" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1349,7 +1499,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -1361,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
@@ -1379,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="L14" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M14" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="N14" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1396,7 +1546,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -1408,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F15" t="s">
         <v>17</v>
@@ -1426,16 +1576,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L15" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M15" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="N15" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1443,7 +1593,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -1455,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
@@ -1473,16 +1623,16 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="L16" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M16" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="N16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1490,7 +1640,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -1502,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -1520,16 +1670,16 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="L17" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M17" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N17" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1537,7 +1687,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -1549,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
@@ -1567,16 +1717,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L18" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M18" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N18" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1584,7 +1734,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -1596,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F19" t="s">
         <v>17</v>
@@ -1614,16 +1764,16 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="L19" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M19" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N19" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1631,7 +1781,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -1643,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F20" t="s">
         <v>17</v>
@@ -1661,16 +1811,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L20" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M20" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N20" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1678,7 +1828,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -1690,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F21" t="s">
         <v>17</v>
@@ -1708,16 +1858,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L21" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M21" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1725,7 +1875,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -1737,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
@@ -1755,16 +1905,16 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="L22" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M22" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="N22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1772,7 +1922,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -1784,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F23" t="s">
         <v>17</v>
@@ -1805,13 +1955,13 @@
         <v>18</v>
       </c>
       <c r="L23" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M23" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1819,7 +1969,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -1831,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F24" t="s">
         <v>17</v>
@@ -1849,16 +1999,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="L24" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M24" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="N24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1866,7 +2016,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -1878,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F25" t="s">
         <v>17</v>
@@ -1896,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="L25" t="s">
         <v>19</v>
@@ -1905,7 +2055,7 @@
         <v>19</v>
       </c>
       <c r="N25" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -1913,7 +2063,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -1925,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
@@ -1943,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="L26" t="s">
         <v>19</v>
@@ -1952,7 +2102,7 @@
         <v>19</v>
       </c>
       <c r="N26" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -1960,7 +2110,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -1972,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F27" t="s">
         <v>17</v>
@@ -1990,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="L27" t="s">
         <v>19</v>
@@ -1999,7 +2149,7 @@
         <v>19</v>
       </c>
       <c r="N27" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -2007,7 +2157,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -2019,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="F28" t="s">
         <v>17</v>
@@ -2037,16 +2187,16 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="L28" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M28" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="N28" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -2054,7 +2204,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -2066,13 +2216,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F29" t="s">
         <v>17</v>
       </c>
       <c r="G29">
-        <v>65647</v>
+        <v>65663</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -2084,16 +2234,16 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="L29" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M29" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="N29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -2101,7 +2251,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -2113,13 +2263,13 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F30" t="s">
         <v>17</v>
       </c>
       <c r="G30">
-        <v>65552</v>
+        <v>65663</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -2131,16 +2281,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="L30" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M30" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="N30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -2148,7 +2298,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -2160,13 +2310,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F31" t="s">
         <v>17</v>
       </c>
       <c r="G31">
-        <v>65647</v>
+        <v>65663</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -2178,16 +2328,16 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="L31" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M31" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="N31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -2195,7 +2345,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -2207,13 +2357,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F32" t="s">
         <v>17</v>
       </c>
       <c r="G32">
-        <v>65552</v>
+        <v>65663</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -2228,13 +2378,13 @@
         <v>18</v>
       </c>
       <c r="L32" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M32" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O32">
         <v>0</v>
@@ -2242,7 +2392,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -2254,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="F33" t="s">
         <v>17</v>
@@ -2272,16 +2422,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="L33" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M33" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="N33" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -2289,7 +2439,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -2301,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F34" t="s">
         <v>17</v>
@@ -2319,16 +2469,16 @@
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="L34" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M34" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="N34" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="O34">
         <v>0</v>
@@ -2336,7 +2486,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -2348,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F35" t="s">
         <v>17</v>
@@ -2366,16 +2516,16 @@
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="L35" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M35" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="N35" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="O35">
         <v>0</v>
@@ -2383,7 +2533,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -2395,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F36" t="s">
         <v>17</v>
@@ -2413,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="L36" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M36" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="N36" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="O36">
         <v>0</v>
@@ -2430,7 +2580,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -2442,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F37" t="s">
         <v>17</v>
@@ -2460,16 +2610,16 @@
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="L37" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M37" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="N37" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -2477,7 +2627,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -2489,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F38" t="s">
         <v>17</v>
@@ -2507,16 +2657,16 @@
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="L38" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M38" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="N38" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="O38">
         <v>0</v>
@@ -2524,7 +2674,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -2536,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="F39" t="s">
         <v>17</v>
@@ -2557,13 +2707,13 @@
         <v>23</v>
       </c>
       <c r="L39" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M39" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N39" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O39">
         <v>0</v>
@@ -2571,7 +2721,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -2583,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F40" t="s">
         <v>17</v>
@@ -2601,16 +2751,16 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="L40" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M40" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N40" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O40">
         <v>0</v>
@@ -2618,7 +2768,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -2630,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F41" t="s">
         <v>17</v>
@@ -2648,16 +2798,16 @@
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="L41" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M41" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N41" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O41">
         <v>0</v>
@@ -2665,7 +2815,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -2677,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F42" t="s">
         <v>17</v>
@@ -2698,13 +2848,13 @@
         <v>18</v>
       </c>
       <c r="L42" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M42" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O42">
         <v>0</v>
@@ -2712,7 +2862,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -2724,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F43" t="s">
         <v>17</v>
@@ -2742,16 +2892,16 @@
         <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="L43" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M43" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="N43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -2759,7 +2909,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -2771,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F44" t="s">
         <v>17</v>
@@ -2789,16 +2939,16 @@
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="L44" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M44" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="N44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O44">
         <v>0</v>
@@ -2806,7 +2956,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -2818,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F45" t="s">
         <v>17</v>
@@ -2853,7 +3003,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -2865,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F46" t="s">
         <v>17</v>
@@ -2900,7 +3050,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -2912,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F47" t="s">
         <v>17</v>
@@ -2930,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="L47" t="s">
         <v>19</v>
@@ -2939,7 +3089,7 @@
         <v>19</v>
       </c>
       <c r="N47" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="O47">
         <v>0</v>
@@ -2947,7 +3097,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -2959,13 +3109,13 @@
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F48" t="s">
         <v>17</v>
       </c>
       <c r="G48">
-        <v>65663</v>
+        <v>65647</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -2986,7 +3136,7 @@
         <v>19</v>
       </c>
       <c r="N48" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="O48">
         <v>0</v>
@@ -2994,7 +3144,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -3006,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="F49" t="s">
         <v>17</v>
       </c>
       <c r="G49">
-        <v>65663</v>
+        <v>65552</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -3033,9 +3183,902 @@
         <v>19</v>
       </c>
       <c r="N49" t="s">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="O49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>142</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>141</v>
+      </c>
+      <c r="F50" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50">
+        <v>65647</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50" t="s">
+        <v>18</v>
+      </c>
+      <c r="L50" t="s">
+        <v>19</v>
+      </c>
+      <c r="M50" t="s">
+        <v>19</v>
+      </c>
+      <c r="N50" t="s">
+        <v>20</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>143</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>144</v>
+      </c>
+      <c r="F51" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51">
+        <v>65552</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51" t="s">
+        <v>18</v>
+      </c>
+      <c r="L51" t="s">
+        <v>19</v>
+      </c>
+      <c r="M51" t="s">
+        <v>19</v>
+      </c>
+      <c r="N51" t="s">
+        <v>20</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>145</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>146</v>
+      </c>
+      <c r="F52" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52">
+        <v>65663</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52" t="s">
+        <v>23</v>
+      </c>
+      <c r="L52" t="s">
+        <v>19</v>
+      </c>
+      <c r="M52" t="s">
+        <v>19</v>
+      </c>
+      <c r="N52" t="s">
+        <v>95</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>147</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>148</v>
+      </c>
+      <c r="F53" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53">
+        <v>65663</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53" t="s">
+        <v>149</v>
+      </c>
+      <c r="L53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M53" t="s">
+        <v>19</v>
+      </c>
+      <c r="N53" t="s">
+        <v>150</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>151</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>152</v>
+      </c>
+      <c r="F54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54">
+        <v>65663</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54" t="s">
+        <v>153</v>
+      </c>
+      <c r="L54" t="s">
+        <v>19</v>
+      </c>
+      <c r="M54" t="s">
+        <v>19</v>
+      </c>
+      <c r="N54" t="s">
+        <v>150</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>154</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>155</v>
+      </c>
+      <c r="F55" t="s">
+        <v>17</v>
+      </c>
+      <c r="G55">
+        <v>65663</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55" t="s">
+        <v>23</v>
+      </c>
+      <c r="L55" t="s">
+        <v>19</v>
+      </c>
+      <c r="M55" t="s">
+        <v>19</v>
+      </c>
+      <c r="N55" t="s">
+        <v>156</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>157</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>158</v>
+      </c>
+      <c r="F56" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56">
+        <v>65663</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56" t="s">
+        <v>149</v>
+      </c>
+      <c r="L56" t="s">
+        <v>19</v>
+      </c>
+      <c r="M56" t="s">
+        <v>19</v>
+      </c>
+      <c r="N56" t="s">
+        <v>156</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>159</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>160</v>
+      </c>
+      <c r="F57" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57">
+        <v>65663</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57" t="s">
+        <v>153</v>
+      </c>
+      <c r="L57" t="s">
+        <v>19</v>
+      </c>
+      <c r="M57" t="s">
+        <v>19</v>
+      </c>
+      <c r="N57" t="s">
+        <v>156</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>161</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>162</v>
+      </c>
+      <c r="F58" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58">
+        <v>65663</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58" t="s">
+        <v>23</v>
+      </c>
+      <c r="L58" t="s">
+        <v>19</v>
+      </c>
+      <c r="M58" t="s">
+        <v>19</v>
+      </c>
+      <c r="N58" t="s">
+        <v>163</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>164</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>165</v>
+      </c>
+      <c r="F59" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59">
+        <v>65663</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59" t="s">
+        <v>149</v>
+      </c>
+      <c r="L59" t="s">
+        <v>19</v>
+      </c>
+      <c r="M59" t="s">
+        <v>19</v>
+      </c>
+      <c r="N59" t="s">
+        <v>163</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>166</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>167</v>
+      </c>
+      <c r="F60" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60">
+        <v>65663</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60" t="s">
+        <v>153</v>
+      </c>
+      <c r="L60" t="s">
+        <v>19</v>
+      </c>
+      <c r="M60" t="s">
+        <v>19</v>
+      </c>
+      <c r="N60" t="s">
+        <v>163</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>168</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>169</v>
+      </c>
+      <c r="F61" t="s">
+        <v>17</v>
+      </c>
+      <c r="G61">
+        <v>65663</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61" t="s">
+        <v>18</v>
+      </c>
+      <c r="L61" t="s">
+        <v>19</v>
+      </c>
+      <c r="M61" t="s">
+        <v>19</v>
+      </c>
+      <c r="N61" t="s">
+        <v>20</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>170</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>171</v>
+      </c>
+      <c r="F62" t="s">
+        <v>17</v>
+      </c>
+      <c r="G62">
+        <v>65663</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62" t="s">
+        <v>23</v>
+      </c>
+      <c r="L62" t="s">
+        <v>19</v>
+      </c>
+      <c r="M62" t="s">
+        <v>19</v>
+      </c>
+      <c r="N62" t="s">
+        <v>20</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>172</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>173</v>
+      </c>
+      <c r="F63" t="s">
+        <v>17</v>
+      </c>
+      <c r="G63">
+        <v>65663</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63" t="s">
+        <v>18</v>
+      </c>
+      <c r="L63" t="s">
+        <v>19</v>
+      </c>
+      <c r="M63" t="s">
+        <v>19</v>
+      </c>
+      <c r="N63" t="s">
+        <v>20</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>174</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>175</v>
+      </c>
+      <c r="F64" t="s">
+        <v>17</v>
+      </c>
+      <c r="G64">
+        <v>65663</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64" t="s">
+        <v>23</v>
+      </c>
+      <c r="L64" t="s">
+        <v>19</v>
+      </c>
+      <c r="M64" t="s">
+        <v>19</v>
+      </c>
+      <c r="N64" t="s">
+        <v>20</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>176</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>177</v>
+      </c>
+      <c r="F65" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65">
+        <v>65663</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65" t="s">
+        <v>18</v>
+      </c>
+      <c r="L65" t="s">
+        <v>19</v>
+      </c>
+      <c r="M65" t="s">
+        <v>19</v>
+      </c>
+      <c r="N65" t="s">
+        <v>20</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>178</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>179</v>
+      </c>
+      <c r="F66" t="s">
+        <v>17</v>
+      </c>
+      <c r="G66">
+        <v>65663</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66" t="s">
+        <v>23</v>
+      </c>
+      <c r="L66" t="s">
+        <v>19</v>
+      </c>
+      <c r="M66" t="s">
+        <v>19</v>
+      </c>
+      <c r="N66" t="s">
+        <v>150</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>180</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>181</v>
+      </c>
+      <c r="F67" t="s">
+        <v>17</v>
+      </c>
+      <c r="G67">
+        <v>65663</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67" t="s">
+        <v>23</v>
+      </c>
+      <c r="L67" t="s">
+        <v>19</v>
+      </c>
+      <c r="M67" t="s">
+        <v>19</v>
+      </c>
+      <c r="N67" t="s">
+        <v>156</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>182</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>183</v>
+      </c>
+      <c r="F68" t="s">
+        <v>17</v>
+      </c>
+      <c r="G68">
+        <v>65663</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68" t="s">
+        <v>23</v>
+      </c>
+      <c r="L68" t="s">
+        <v>19</v>
+      </c>
+      <c r="M68" t="s">
+        <v>19</v>
+      </c>
+      <c r="N68" t="s">
+        <v>163</v>
+      </c>
+      <c r="O68">
         <v>0</v>
       </c>
     </row>
